--- a/Assignment1-guess-number/Iteration5/document/test-report.xlsx
+++ b/Assignment1-guess-number/Iteration5/document/test-report.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="79" documentId="8_{99DBDE99-DBC2-5845-8D08-4E51B8BBB2BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{9FE78100-9168-D74D-A5D5-22F10B63725F}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="8_{99DBDE99-DBC2-5845-8D08-4E51B8BBB2BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{343A29B2-729D-9A41-AFBC-529F72F9D176}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="1080" windowWidth="26560" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -512,17 +512,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.1640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="40.83203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="44.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="48.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="47.5" style="3" customWidth="1"/>
     <col min="6" max="6" width="25.6640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="25.83203125" style="5" customWidth="1"/>
   </cols>
